--- a/Mifos Automation Excels/Loan Product/391-RBI-EI-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-EarlyRePayment-Loanproduct4.xlsx
+++ b/Mifos Automation Excels/Loan Product/391-RBI-EI-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-EarlyRePayment-Loanproduct4.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mifos Automation Excels\Loan Product\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="180" yWindow="2955" windowWidth="19050" windowHeight="5580"/>
   </bookViews>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
   <si>
     <t>productname</t>
   </si>
@@ -145,13 +140,82 @@
     <t>Same as repayment period</t>
   </si>
   <si>
-    <t>kar5</t>
-  </si>
-  <si>
     <t>391-RBI-EI-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-EarlyRePayment</t>
   </si>
   <si>
     <t>RBI (India) - Equal Installment - Declining Balance - Daily-Enable Check box Recalculate Interest-Interest recalculation compounding on NONE - Advance Reduce number of installments- Pre Calculate Till preclosure date- frequency for recalculate Outstanding Principal Same as repayment period- Checkbox Enable Multiple Disbursals yes - Maximum Tranche count 1</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loan portfolio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interest Receivable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penalties Receivable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transfer in Suspence </t>
+  </si>
+  <si>
+    <t>Fees Receivable</t>
+  </si>
+  <si>
+    <t>Income from interest</t>
+  </si>
+  <si>
+    <t>Income from penalties</t>
+  </si>
+  <si>
+    <t>Income from fees</t>
+  </si>
+  <si>
+    <t>Income from recovery repayments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Losses Writtenoff </t>
+  </si>
+  <si>
+    <t>Overpayment Liability</t>
+  </si>
+  <si>
+    <t>fundsource</t>
+  </si>
+  <si>
+    <t>loanprotfolio</t>
+  </si>
+  <si>
+    <t>interestreceivable</t>
+  </si>
+  <si>
+    <t>penaltiesreceivable</t>
+  </si>
+  <si>
+    <t>transferinsuspense</t>
+  </si>
+  <si>
+    <t>feesreceivable</t>
+  </si>
+  <si>
+    <t>incomefrominterest</t>
+  </si>
+  <si>
+    <t>incomefrompenalties</t>
+  </si>
+  <si>
+    <t>incomefromfees</t>
+  </si>
+  <si>
+    <t>incomefromrecoveryrepayments</t>
+  </si>
+  <si>
+    <t>loseswrittenoff</t>
+  </si>
+  <si>
+    <t>overpaymentliability</t>
   </si>
 </sst>
 </file>
@@ -287,7 +351,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -322,7 +386,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -531,16 +595,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="46.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -548,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -556,15 +620,15 @@
         <v>5</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>41</v>
+      <c r="B3" s="5">
+        <v>391</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -628,7 +692,7 @@
         <v>36</v>
       </c>
       <c r="B11" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -765,6 +829,102 @@
       </c>
       <c r="B28" s="5">
         <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -792,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
